--- a/dati/Tabella_vendita.xlsx
+++ b/dati/Tabella_vendita.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://moltenicspa-my.sharepoint.com/personal/pfrapoli_unifor_it/Documents/Documenti/GitHub/DIBA_parete/dati/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{492AECF5-3707-4DF6-B866-4F95C69D0AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{492AECF5-3707-4DF6-B866-4F95C69D0AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{452C617A-A680-47CD-B3CD-013741E79144}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{872FC1CA-8183-40AA-92C0-A4B9D24FDFED}"/>
   </bookViews>
   <sheets>
     <sheet name="vendita" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">vendita!$A$1:$S$79</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="185">
   <si>
     <t>MACRO_SISTEMA</t>
   </si>
@@ -579,6 +582,18 @@
   </si>
   <si>
     <t>images/5RCTJS0B.png</t>
+  </si>
+  <si>
+    <t>ID_COMPONENTE_ARTICOLO_PADRE_DESCRIZIONE_EN</t>
+  </si>
+  <si>
+    <t>UNIT_ARTICOLO_PADRE</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>NR</t>
   </si>
 </sst>
 </file>
@@ -950,16 +965,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF91650-DE1B-48F3-994A-32486D26E51F}">
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:S79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
@@ -971,14 +986,16 @@
     <col min="10" max="10" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="96.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="96.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1016,22 +1033,28 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1069,22 +1092,25 @@
         <v>28</v>
       </c>
       <c r="M2" t="s">
+        <v>183</v>
+      </c>
+      <c r="O2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>155</v>
       </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" t="s">
         <v>31</v>
       </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1122,22 +1148,25 @@
         <v>28</v>
       </c>
       <c r="M3" t="s">
+        <v>183</v>
+      </c>
+      <c r="O3" t="s">
         <v>29</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>155</v>
       </c>
-      <c r="O3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" t="s">
         <v>32</v>
       </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1175,22 +1204,25 @@
         <v>28</v>
       </c>
       <c r="M4" t="s">
+        <v>183</v>
+      </c>
+      <c r="O4" t="s">
         <v>29</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>155</v>
       </c>
-      <c r="O4" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" t="s">
         <v>33</v>
       </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1228,22 +1260,25 @@
         <v>36</v>
       </c>
       <c r="M5" t="s">
+        <v>183</v>
+      </c>
+      <c r="O5" t="s">
         <v>37</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>156</v>
       </c>
-      <c r="O5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" t="s">
         <v>31</v>
       </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1281,22 +1316,25 @@
         <v>36</v>
       </c>
       <c r="M6" t="s">
+        <v>183</v>
+      </c>
+      <c r="O6" t="s">
         <v>37</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>156</v>
       </c>
-      <c r="O6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" t="s">
         <v>38</v>
       </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1334,22 +1372,25 @@
         <v>36</v>
       </c>
       <c r="M7" t="s">
+        <v>183</v>
+      </c>
+      <c r="O7" t="s">
         <v>37</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>156</v>
       </c>
-      <c r="O7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" t="s">
         <v>33</v>
       </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1387,22 +1428,25 @@
         <v>41</v>
       </c>
       <c r="M8" t="s">
+        <v>183</v>
+      </c>
+      <c r="O8" t="s">
         <v>42</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>157</v>
       </c>
-      <c r="O8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" t="s">
         <v>43</v>
       </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1440,22 +1484,25 @@
         <v>41</v>
       </c>
       <c r="M9" t="s">
+        <v>183</v>
+      </c>
+      <c r="O9" t="s">
         <v>42</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
         <v>157</v>
       </c>
-      <c r="O9" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" t="s">
         <v>32</v>
       </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1493,22 +1540,25 @@
         <v>41</v>
       </c>
       <c r="M10" t="s">
+        <v>183</v>
+      </c>
+      <c r="O10" t="s">
         <v>42</v>
       </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
         <v>157</v>
       </c>
-      <c r="O10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" t="s">
         <v>44</v>
       </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1546,22 +1596,25 @@
         <v>45</v>
       </c>
       <c r="M11" t="s">
+        <v>183</v>
+      </c>
+      <c r="O11" t="s">
         <v>46</v>
       </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
         <v>158</v>
       </c>
-      <c r="O11" t="s">
-        <v>30</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" t="s">
         <v>43</v>
       </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1599,22 +1652,25 @@
         <v>45</v>
       </c>
       <c r="M12" t="s">
+        <v>183</v>
+      </c>
+      <c r="O12" t="s">
         <v>46</v>
       </c>
-      <c r="N12" t="s">
+      <c r="P12" t="s">
         <v>158</v>
       </c>
-      <c r="O12" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
+        <v>30</v>
+      </c>
+      <c r="R12" t="s">
         <v>38</v>
       </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1652,22 +1708,25 @@
         <v>45</v>
       </c>
       <c r="M13" t="s">
+        <v>183</v>
+      </c>
+      <c r="O13" t="s">
         <v>46</v>
       </c>
-      <c r="N13" t="s">
+      <c r="P13" t="s">
         <v>158</v>
       </c>
-      <c r="O13" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R13" t="s">
         <v>44</v>
       </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1705,22 +1764,25 @@
         <v>52</v>
       </c>
       <c r="M14" t="s">
+        <v>184</v>
+      </c>
+      <c r="O14" t="s">
         <v>53</v>
       </c>
-      <c r="N14" t="s">
+      <c r="P14" t="s">
         <v>159</v>
       </c>
-      <c r="O14" t="s">
-        <v>30</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R14" t="s">
         <v>54</v>
       </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1758,22 +1820,25 @@
         <v>52</v>
       </c>
       <c r="M15" t="s">
+        <v>184</v>
+      </c>
+      <c r="O15" t="s">
         <v>53</v>
       </c>
-      <c r="N15" t="s">
+      <c r="P15" t="s">
         <v>159</v>
       </c>
-      <c r="O15" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R15" t="s">
         <v>55</v>
       </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1811,22 +1876,25 @@
         <v>52</v>
       </c>
       <c r="M16" t="s">
+        <v>184</v>
+      </c>
+      <c r="O16" t="s">
         <v>53</v>
       </c>
-      <c r="N16" t="s">
+      <c r="P16" t="s">
         <v>159</v>
       </c>
-      <c r="O16" t="s">
-        <v>30</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
+        <v>30</v>
+      </c>
+      <c r="R16" t="s">
         <v>56</v>
       </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1864,22 +1932,25 @@
         <v>58</v>
       </c>
       <c r="M17" t="s">
+        <v>184</v>
+      </c>
+      <c r="O17" t="s">
         <v>59</v>
       </c>
-      <c r="N17" t="s">
+      <c r="P17" t="s">
         <v>160</v>
       </c>
-      <c r="O17" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17" t="s">
         <v>60</v>
       </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1917,22 +1988,25 @@
         <v>58</v>
       </c>
       <c r="M18" t="s">
+        <v>184</v>
+      </c>
+      <c r="O18" t="s">
         <v>59</v>
       </c>
-      <c r="N18" t="s">
+      <c r="P18" t="s">
         <v>160</v>
       </c>
-      <c r="O18" t="s">
-        <v>30</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R18" t="s">
         <v>55</v>
       </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1970,22 +2044,25 @@
         <v>58</v>
       </c>
       <c r="M19" t="s">
+        <v>184</v>
+      </c>
+      <c r="O19" t="s">
         <v>59</v>
       </c>
-      <c r="N19" t="s">
+      <c r="P19" t="s">
         <v>160</v>
       </c>
-      <c r="O19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R19" t="s">
         <v>56</v>
       </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2023,22 +2100,25 @@
         <v>63</v>
       </c>
       <c r="M20" t="s">
+        <v>184</v>
+      </c>
+      <c r="O20" t="s">
         <v>64</v>
       </c>
-      <c r="N20" t="s">
+      <c r="P20" t="s">
         <v>161</v>
       </c>
-      <c r="O20" t="s">
-        <v>30</v>
-      </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
+        <v>30</v>
+      </c>
+      <c r="R20" t="s">
         <v>65</v>
       </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -2076,22 +2156,25 @@
         <v>63</v>
       </c>
       <c r="M21" t="s">
+        <v>184</v>
+      </c>
+      <c r="O21" t="s">
         <v>64</v>
       </c>
-      <c r="N21" t="s">
+      <c r="P21" t="s">
         <v>161</v>
       </c>
-      <c r="O21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
+        <v>30</v>
+      </c>
+      <c r="R21" t="s">
         <v>66</v>
       </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -2129,22 +2212,25 @@
         <v>63</v>
       </c>
       <c r="M22" t="s">
+        <v>184</v>
+      </c>
+      <c r="O22" t="s">
         <v>64</v>
       </c>
-      <c r="N22" t="s">
+      <c r="P22" t="s">
         <v>161</v>
       </c>
-      <c r="O22" t="s">
-        <v>30</v>
-      </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R22" t="s">
         <v>67</v>
       </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -2182,22 +2268,25 @@
         <v>68</v>
       </c>
       <c r="M23" t="s">
+        <v>184</v>
+      </c>
+      <c r="O23" t="s">
         <v>69</v>
       </c>
-      <c r="N23" t="s">
+      <c r="P23" t="s">
         <v>162</v>
       </c>
-      <c r="O23" t="s">
-        <v>30</v>
-      </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
+        <v>30</v>
+      </c>
+      <c r="R23" t="s">
         <v>70</v>
       </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -2235,22 +2324,25 @@
         <v>68</v>
       </c>
       <c r="M24" t="s">
+        <v>184</v>
+      </c>
+      <c r="O24" t="s">
         <v>69</v>
       </c>
-      <c r="N24" t="s">
+      <c r="P24" t="s">
         <v>162</v>
       </c>
-      <c r="O24" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R24" t="s">
         <v>66</v>
       </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -2288,22 +2380,25 @@
         <v>68</v>
       </c>
       <c r="M25" t="s">
+        <v>184</v>
+      </c>
+      <c r="O25" t="s">
         <v>69</v>
       </c>
-      <c r="N25" t="s">
+      <c r="P25" t="s">
         <v>162</v>
       </c>
-      <c r="O25" t="s">
-        <v>30</v>
-      </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
+        <v>30</v>
+      </c>
+      <c r="R25" t="s">
         <v>67</v>
       </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -2341,22 +2436,25 @@
         <v>73</v>
       </c>
       <c r="M26" t="s">
+        <v>184</v>
+      </c>
+      <c r="O26" t="s">
         <v>74</v>
       </c>
-      <c r="N26" t="s">
+      <c r="P26" t="s">
         <v>163</v>
       </c>
-      <c r="O26" t="s">
-        <v>30</v>
-      </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
+        <v>30</v>
+      </c>
+      <c r="R26" t="s">
         <v>75</v>
       </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -2394,22 +2492,25 @@
         <v>73</v>
       </c>
       <c r="M27" t="s">
+        <v>184</v>
+      </c>
+      <c r="O27" t="s">
         <v>74</v>
       </c>
-      <c r="N27" t="s">
+      <c r="P27" t="s">
         <v>163</v>
       </c>
-      <c r="O27" t="s">
-        <v>30</v>
-      </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
+        <v>30</v>
+      </c>
+      <c r="R27" t="s">
         <v>76</v>
       </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -2447,22 +2548,25 @@
         <v>73</v>
       </c>
       <c r="M28" t="s">
+        <v>184</v>
+      </c>
+      <c r="O28" t="s">
         <v>74</v>
       </c>
-      <c r="N28" t="s">
+      <c r="P28" t="s">
         <v>163</v>
       </c>
-      <c r="O28" t="s">
-        <v>30</v>
-      </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
+        <v>30</v>
+      </c>
+      <c r="R28" t="s">
         <v>77</v>
       </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -2500,22 +2604,25 @@
         <v>78</v>
       </c>
       <c r="M29" t="s">
+        <v>184</v>
+      </c>
+      <c r="O29" t="s">
         <v>79</v>
       </c>
-      <c r="N29" t="s">
+      <c r="P29" t="s">
         <v>164</v>
       </c>
-      <c r="O29" t="s">
-        <v>30</v>
-      </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
+        <v>30</v>
+      </c>
+      <c r="R29" t="s">
         <v>80</v>
       </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -2553,22 +2660,25 @@
         <v>78</v>
       </c>
       <c r="M30" t="s">
+        <v>184</v>
+      </c>
+      <c r="O30" t="s">
         <v>79</v>
       </c>
-      <c r="N30" t="s">
+      <c r="P30" t="s">
         <v>164</v>
       </c>
-      <c r="O30" t="s">
-        <v>30</v>
-      </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
+        <v>30</v>
+      </c>
+      <c r="R30" t="s">
         <v>76</v>
       </c>
-      <c r="Q30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -2606,22 +2716,25 @@
         <v>78</v>
       </c>
       <c r="M31" t="s">
+        <v>184</v>
+      </c>
+      <c r="O31" t="s">
         <v>79</v>
       </c>
-      <c r="N31" t="s">
+      <c r="P31" t="s">
         <v>164</v>
       </c>
-      <c r="O31" t="s">
-        <v>30</v>
-      </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
+        <v>30</v>
+      </c>
+      <c r="R31" t="s">
         <v>77</v>
       </c>
-      <c r="Q31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2659,22 +2772,25 @@
         <v>85</v>
       </c>
       <c r="M32" t="s">
+        <v>183</v>
+      </c>
+      <c r="O32" t="s">
         <v>86</v>
       </c>
-      <c r="N32" t="s">
+      <c r="P32" t="s">
         <v>165</v>
       </c>
-      <c r="O32" t="s">
-        <v>30</v>
-      </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
+        <v>30</v>
+      </c>
+      <c r="R32" t="s">
         <v>87</v>
       </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -2712,22 +2828,25 @@
         <v>85</v>
       </c>
       <c r="M33" t="s">
+        <v>183</v>
+      </c>
+      <c r="O33" t="s">
         <v>86</v>
       </c>
-      <c r="N33" t="s">
+      <c r="P33" t="s">
         <v>165</v>
       </c>
-      <c r="O33" t="s">
-        <v>30</v>
-      </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
+        <v>30</v>
+      </c>
+      <c r="R33" t="s">
         <v>88</v>
       </c>
-      <c r="Q33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -2765,22 +2884,25 @@
         <v>85</v>
       </c>
       <c r="M34" t="s">
+        <v>183</v>
+      </c>
+      <c r="O34" t="s">
         <v>86</v>
       </c>
-      <c r="N34" t="s">
+      <c r="P34" t="s">
         <v>165</v>
       </c>
-      <c r="O34" t="s">
-        <v>30</v>
-      </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
+        <v>30</v>
+      </c>
+      <c r="R34" t="s">
         <v>89</v>
       </c>
-      <c r="Q34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2818,22 +2940,25 @@
         <v>90</v>
       </c>
       <c r="M35" t="s">
+        <v>183</v>
+      </c>
+      <c r="O35" t="s">
         <v>91</v>
       </c>
-      <c r="N35" t="s">
+      <c r="P35" t="s">
         <v>166</v>
       </c>
-      <c r="O35" t="s">
-        <v>30</v>
-      </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
+        <v>30</v>
+      </c>
+      <c r="R35" t="s">
         <v>92</v>
       </c>
-      <c r="Q35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2871,22 +2996,25 @@
         <v>90</v>
       </c>
       <c r="M36" t="s">
+        <v>183</v>
+      </c>
+      <c r="O36" t="s">
         <v>91</v>
       </c>
-      <c r="N36" t="s">
+      <c r="P36" t="s">
         <v>166</v>
       </c>
-      <c r="O36" t="s">
-        <v>30</v>
-      </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
+        <v>30</v>
+      </c>
+      <c r="R36" t="s">
         <v>88</v>
       </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -2924,22 +3052,25 @@
         <v>90</v>
       </c>
       <c r="M37" t="s">
+        <v>183</v>
+      </c>
+      <c r="O37" t="s">
         <v>91</v>
       </c>
-      <c r="N37" t="s">
+      <c r="P37" t="s">
         <v>166</v>
       </c>
-      <c r="O37" t="s">
-        <v>30</v>
-      </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
+        <v>30</v>
+      </c>
+      <c r="R37" t="s">
         <v>93</v>
       </c>
-      <c r="Q37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2977,22 +3108,25 @@
         <v>94</v>
       </c>
       <c r="M38" t="s">
+        <v>184</v>
+      </c>
+      <c r="O38" t="s">
         <v>95</v>
       </c>
-      <c r="N38" t="s">
+      <c r="P38" t="s">
         <v>167</v>
       </c>
-      <c r="O38" t="s">
-        <v>30</v>
-      </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
+        <v>30</v>
+      </c>
+      <c r="R38" t="s">
         <v>96</v>
       </c>
-      <c r="Q38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -3030,22 +3164,25 @@
         <v>94</v>
       </c>
       <c r="M39" t="s">
+        <v>184</v>
+      </c>
+      <c r="O39" t="s">
         <v>95</v>
       </c>
-      <c r="N39" t="s">
+      <c r="P39" t="s">
         <v>167</v>
       </c>
-      <c r="O39" t="s">
-        <v>30</v>
-      </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
+        <v>30</v>
+      </c>
+      <c r="R39" t="s">
         <v>97</v>
       </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -3083,22 +3220,25 @@
         <v>94</v>
       </c>
       <c r="M40" t="s">
+        <v>184</v>
+      </c>
+      <c r="O40" t="s">
         <v>95</v>
       </c>
-      <c r="N40" t="s">
+      <c r="P40" t="s">
         <v>167</v>
       </c>
-      <c r="O40" t="s">
-        <v>30</v>
-      </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
+        <v>30</v>
+      </c>
+      <c r="R40" t="s">
         <v>98</v>
       </c>
-      <c r="Q40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -3136,22 +3276,25 @@
         <v>99</v>
       </c>
       <c r="M41" t="s">
+        <v>184</v>
+      </c>
+      <c r="O41" t="s">
         <v>100</v>
       </c>
-      <c r="N41" t="s">
+      <c r="P41" t="s">
         <v>168</v>
       </c>
-      <c r="O41" t="s">
-        <v>30</v>
-      </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
+        <v>30</v>
+      </c>
+      <c r="R41" t="s">
         <v>101</v>
       </c>
-      <c r="Q41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -3189,22 +3332,25 @@
         <v>99</v>
       </c>
       <c r="M42" t="s">
+        <v>184</v>
+      </c>
+      <c r="O42" t="s">
         <v>100</v>
       </c>
-      <c r="N42" t="s">
+      <c r="P42" t="s">
         <v>168</v>
       </c>
-      <c r="O42" t="s">
-        <v>30</v>
-      </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
+        <v>30</v>
+      </c>
+      <c r="R42" t="s">
         <v>97</v>
       </c>
-      <c r="Q42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -3242,22 +3388,25 @@
         <v>99</v>
       </c>
       <c r="M43" t="s">
+        <v>184</v>
+      </c>
+      <c r="O43" t="s">
         <v>100</v>
       </c>
-      <c r="N43" t="s">
+      <c r="P43" t="s">
         <v>168</v>
       </c>
-      <c r="O43" t="s">
-        <v>30</v>
-      </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
+        <v>30</v>
+      </c>
+      <c r="R43" t="s">
         <v>98</v>
       </c>
-      <c r="Q43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -3295,22 +3444,25 @@
         <v>102</v>
       </c>
       <c r="M44" t="s">
+        <v>184</v>
+      </c>
+      <c r="O44" t="s">
         <v>103</v>
       </c>
-      <c r="N44" t="s">
+      <c r="P44" t="s">
         <v>169</v>
       </c>
-      <c r="O44" t="s">
-        <v>30</v>
-      </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
+        <v>30</v>
+      </c>
+      <c r="R44" t="s">
         <v>104</v>
       </c>
-      <c r="Q44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -3348,22 +3500,25 @@
         <v>102</v>
       </c>
       <c r="M45" t="s">
+        <v>184</v>
+      </c>
+      <c r="O45" t="s">
         <v>103</v>
       </c>
-      <c r="N45" t="s">
+      <c r="P45" t="s">
         <v>169</v>
       </c>
-      <c r="O45" t="s">
-        <v>30</v>
-      </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
+        <v>30</v>
+      </c>
+      <c r="R45" t="s">
         <v>105</v>
       </c>
-      <c r="Q45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -3401,22 +3556,25 @@
         <v>102</v>
       </c>
       <c r="M46" t="s">
+        <v>184</v>
+      </c>
+      <c r="O46" t="s">
         <v>103</v>
       </c>
-      <c r="N46" t="s">
+      <c r="P46" t="s">
         <v>169</v>
       </c>
-      <c r="O46" t="s">
-        <v>30</v>
-      </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
+        <v>30</v>
+      </c>
+      <c r="R46" t="s">
         <v>106</v>
       </c>
-      <c r="Q46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -3454,22 +3612,25 @@
         <v>107</v>
       </c>
       <c r="M47" t="s">
+        <v>184</v>
+      </c>
+      <c r="O47" t="s">
         <v>108</v>
       </c>
-      <c r="N47" t="s">
+      <c r="P47" t="s">
         <v>170</v>
       </c>
-      <c r="O47" t="s">
-        <v>30</v>
-      </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R47" t="s">
         <v>109</v>
       </c>
-      <c r="Q47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -3507,22 +3668,25 @@
         <v>107</v>
       </c>
       <c r="M48" t="s">
+        <v>184</v>
+      </c>
+      <c r="O48" t="s">
         <v>108</v>
       </c>
-      <c r="N48" t="s">
+      <c r="P48" t="s">
         <v>170</v>
       </c>
-      <c r="O48" t="s">
-        <v>30</v>
-      </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
+        <v>30</v>
+      </c>
+      <c r="R48" t="s">
         <v>105</v>
       </c>
-      <c r="Q48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -3560,22 +3724,25 @@
         <v>107</v>
       </c>
       <c r="M49" t="s">
+        <v>184</v>
+      </c>
+      <c r="O49" t="s">
         <v>108</v>
       </c>
-      <c r="N49" t="s">
+      <c r="P49" t="s">
         <v>170</v>
       </c>
-      <c r="O49" t="s">
-        <v>30</v>
-      </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
+        <v>30</v>
+      </c>
+      <c r="R49" t="s">
         <v>106</v>
       </c>
-      <c r="Q49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -3613,22 +3780,25 @@
         <v>110</v>
       </c>
       <c r="M50" t="s">
+        <v>184</v>
+      </c>
+      <c r="O50" t="s">
         <v>111</v>
       </c>
-      <c r="N50" t="s">
+      <c r="P50" t="s">
         <v>171</v>
       </c>
-      <c r="O50" t="s">
-        <v>30</v>
-      </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
+        <v>30</v>
+      </c>
+      <c r="R50" t="s">
         <v>112</v>
       </c>
-      <c r="Q50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -3666,22 +3836,25 @@
         <v>110</v>
       </c>
       <c r="M51" t="s">
+        <v>184</v>
+      </c>
+      <c r="O51" t="s">
         <v>111</v>
       </c>
-      <c r="N51" t="s">
+      <c r="P51" t="s">
         <v>171</v>
       </c>
-      <c r="O51" t="s">
-        <v>30</v>
-      </c>
-      <c r="P51" t="s">
+      <c r="Q51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R51" t="s">
         <v>113</v>
       </c>
-      <c r="Q51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -3719,22 +3892,25 @@
         <v>110</v>
       </c>
       <c r="M52" t="s">
+        <v>184</v>
+      </c>
+      <c r="O52" t="s">
         <v>111</v>
       </c>
-      <c r="N52" t="s">
+      <c r="P52" t="s">
         <v>171</v>
       </c>
-      <c r="O52" t="s">
-        <v>30</v>
-      </c>
-      <c r="P52" t="s">
+      <c r="Q52" t="s">
+        <v>30</v>
+      </c>
+      <c r="R52" t="s">
         <v>114</v>
       </c>
-      <c r="Q52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -3772,22 +3948,25 @@
         <v>115</v>
       </c>
       <c r="M53" t="s">
+        <v>184</v>
+      </c>
+      <c r="O53" t="s">
         <v>116</v>
       </c>
-      <c r="N53" t="s">
+      <c r="P53" t="s">
         <v>172</v>
       </c>
-      <c r="O53" t="s">
-        <v>30</v>
-      </c>
-      <c r="P53" t="s">
+      <c r="Q53" t="s">
+        <v>30</v>
+      </c>
+      <c r="R53" t="s">
         <v>117</v>
       </c>
-      <c r="Q53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -3825,22 +4004,25 @@
         <v>115</v>
       </c>
       <c r="M54" t="s">
+        <v>184</v>
+      </c>
+      <c r="O54" t="s">
         <v>116</v>
       </c>
-      <c r="N54" t="s">
+      <c r="P54" t="s">
         <v>172</v>
       </c>
-      <c r="O54" t="s">
-        <v>30</v>
-      </c>
-      <c r="P54" t="s">
+      <c r="Q54" t="s">
+        <v>30</v>
+      </c>
+      <c r="R54" t="s">
         <v>113</v>
       </c>
-      <c r="Q54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -3878,22 +4060,25 @@
         <v>115</v>
       </c>
       <c r="M55" t="s">
+        <v>184</v>
+      </c>
+      <c r="O55" t="s">
         <v>116</v>
       </c>
-      <c r="N55" t="s">
+      <c r="P55" t="s">
         <v>172</v>
       </c>
-      <c r="O55" t="s">
-        <v>30</v>
-      </c>
-      <c r="P55" t="s">
+      <c r="Q55" t="s">
+        <v>30</v>
+      </c>
+      <c r="R55" t="s">
         <v>114</v>
       </c>
-      <c r="Q55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -3931,22 +4116,25 @@
         <v>122</v>
       </c>
       <c r="M56" t="s">
+        <v>183</v>
+      </c>
+      <c r="O56" t="s">
         <v>123</v>
       </c>
-      <c r="N56" t="s">
+      <c r="P56" t="s">
         <v>173</v>
       </c>
-      <c r="O56" t="s">
-        <v>30</v>
-      </c>
-      <c r="P56" t="s">
+      <c r="Q56" t="s">
+        <v>30</v>
+      </c>
+      <c r="R56" t="s">
         <v>124</v>
       </c>
-      <c r="Q56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -3984,22 +4172,25 @@
         <v>122</v>
       </c>
       <c r="M57" t="s">
+        <v>183</v>
+      </c>
+      <c r="O57" t="s">
         <v>123</v>
       </c>
-      <c r="N57" t="s">
+      <c r="P57" t="s">
         <v>173</v>
       </c>
-      <c r="O57" t="s">
-        <v>30</v>
-      </c>
-      <c r="P57" t="s">
+      <c r="Q57" t="s">
+        <v>30</v>
+      </c>
+      <c r="R57" t="s">
         <v>125</v>
       </c>
-      <c r="Q57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -4037,22 +4228,25 @@
         <v>122</v>
       </c>
       <c r="M58" t="s">
+        <v>183</v>
+      </c>
+      <c r="O58" t="s">
         <v>123</v>
       </c>
-      <c r="N58" t="s">
+      <c r="P58" t="s">
         <v>173</v>
       </c>
-      <c r="O58" t="s">
-        <v>30</v>
-      </c>
-      <c r="P58" t="s">
+      <c r="Q58" t="s">
+        <v>30</v>
+      </c>
+      <c r="R58" t="s">
         <v>126</v>
       </c>
-      <c r="Q58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -4090,22 +4284,25 @@
         <v>127</v>
       </c>
       <c r="M59" t="s">
+        <v>183</v>
+      </c>
+      <c r="O59" t="s">
         <v>128</v>
       </c>
-      <c r="N59" t="s">
+      <c r="P59" t="s">
         <v>174</v>
       </c>
-      <c r="O59" t="s">
-        <v>30</v>
-      </c>
-      <c r="P59" t="s">
+      <c r="Q59" t="s">
+        <v>30</v>
+      </c>
+      <c r="R59" t="s">
         <v>129</v>
       </c>
-      <c r="Q59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -4143,22 +4340,25 @@
         <v>127</v>
       </c>
       <c r="M60" t="s">
+        <v>183</v>
+      </c>
+      <c r="O60" t="s">
         <v>128</v>
       </c>
-      <c r="N60" t="s">
+      <c r="P60" t="s">
         <v>174</v>
       </c>
-      <c r="O60" t="s">
-        <v>30</v>
-      </c>
-      <c r="P60" t="s">
+      <c r="Q60" t="s">
+        <v>30</v>
+      </c>
+      <c r="R60" t="s">
         <v>125</v>
       </c>
-      <c r="Q60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -4196,22 +4396,25 @@
         <v>127</v>
       </c>
       <c r="M61" t="s">
+        <v>183</v>
+      </c>
+      <c r="O61" t="s">
         <v>128</v>
       </c>
-      <c r="N61" t="s">
+      <c r="P61" t="s">
         <v>174</v>
       </c>
-      <c r="O61" t="s">
-        <v>30</v>
-      </c>
-      <c r="P61" t="s">
+      <c r="Q61" t="s">
+        <v>30</v>
+      </c>
+      <c r="R61" t="s">
         <v>130</v>
       </c>
-      <c r="Q61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -4249,22 +4452,25 @@
         <v>131</v>
       </c>
       <c r="M62" t="s">
+        <v>184</v>
+      </c>
+      <c r="O62" t="s">
         <v>132</v>
       </c>
-      <c r="N62" t="s">
+      <c r="P62" t="s">
         <v>175</v>
       </c>
-      <c r="O62" t="s">
-        <v>30</v>
-      </c>
-      <c r="P62" t="s">
+      <c r="Q62" t="s">
+        <v>30</v>
+      </c>
+      <c r="R62" t="s">
         <v>133</v>
       </c>
-      <c r="Q62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -4302,22 +4508,25 @@
         <v>131</v>
       </c>
       <c r="M63" t="s">
+        <v>184</v>
+      </c>
+      <c r="O63" t="s">
         <v>132</v>
       </c>
-      <c r="N63" t="s">
+      <c r="P63" t="s">
         <v>175</v>
       </c>
-      <c r="O63" t="s">
-        <v>30</v>
-      </c>
-      <c r="P63" t="s">
+      <c r="Q63" t="s">
+        <v>30</v>
+      </c>
+      <c r="R63" t="s">
         <v>134</v>
       </c>
-      <c r="Q63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -4355,22 +4564,25 @@
         <v>131</v>
       </c>
       <c r="M64" t="s">
+        <v>184</v>
+      </c>
+      <c r="O64" t="s">
         <v>132</v>
       </c>
-      <c r="N64" t="s">
+      <c r="P64" t="s">
         <v>175</v>
       </c>
-      <c r="O64" t="s">
-        <v>30</v>
-      </c>
-      <c r="P64" t="s">
+      <c r="Q64" t="s">
+        <v>30</v>
+      </c>
+      <c r="R64" t="s">
         <v>135</v>
       </c>
-      <c r="Q64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -4408,22 +4620,25 @@
         <v>136</v>
       </c>
       <c r="M65" t="s">
+        <v>184</v>
+      </c>
+      <c r="O65" t="s">
         <v>137</v>
       </c>
-      <c r="N65" t="s">
+      <c r="P65" t="s">
         <v>176</v>
       </c>
-      <c r="O65" t="s">
-        <v>30</v>
-      </c>
-      <c r="P65" t="s">
+      <c r="Q65" t="s">
+        <v>30</v>
+      </c>
+      <c r="R65" t="s">
         <v>138</v>
       </c>
-      <c r="Q65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -4461,22 +4676,25 @@
         <v>136</v>
       </c>
       <c r="M66" t="s">
+        <v>184</v>
+      </c>
+      <c r="O66" t="s">
         <v>137</v>
       </c>
-      <c r="N66" t="s">
+      <c r="P66" t="s">
         <v>176</v>
       </c>
-      <c r="O66" t="s">
-        <v>30</v>
-      </c>
-      <c r="P66" t="s">
+      <c r="Q66" t="s">
+        <v>30</v>
+      </c>
+      <c r="R66" t="s">
         <v>134</v>
       </c>
-      <c r="Q66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -4514,22 +4732,25 @@
         <v>136</v>
       </c>
       <c r="M67" t="s">
+        <v>184</v>
+      </c>
+      <c r="O67" t="s">
         <v>137</v>
       </c>
-      <c r="N67" t="s">
+      <c r="P67" t="s">
         <v>176</v>
       </c>
-      <c r="O67" t="s">
-        <v>30</v>
-      </c>
-      <c r="P67" t="s">
+      <c r="Q67" t="s">
+        <v>30</v>
+      </c>
+      <c r="R67" t="s">
         <v>135</v>
       </c>
-      <c r="Q67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -4567,22 +4788,25 @@
         <v>139</v>
       </c>
       <c r="M68" t="s">
+        <v>184</v>
+      </c>
+      <c r="O68" t="s">
         <v>140</v>
       </c>
-      <c r="N68" t="s">
+      <c r="P68" t="s">
         <v>177</v>
       </c>
-      <c r="O68" t="s">
-        <v>30</v>
-      </c>
-      <c r="P68" t="s">
+      <c r="Q68" t="s">
+        <v>30</v>
+      </c>
+      <c r="R68" t="s">
         <v>141</v>
       </c>
-      <c r="Q68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -4620,22 +4844,25 @@
         <v>139</v>
       </c>
       <c r="M69" t="s">
+        <v>184</v>
+      </c>
+      <c r="O69" t="s">
         <v>140</v>
       </c>
-      <c r="N69" t="s">
+      <c r="P69" t="s">
         <v>177</v>
       </c>
-      <c r="O69" t="s">
-        <v>30</v>
-      </c>
-      <c r="P69" t="s">
+      <c r="Q69" t="s">
+        <v>30</v>
+      </c>
+      <c r="R69" t="s">
         <v>142</v>
       </c>
-      <c r="Q69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -4673,22 +4900,25 @@
         <v>139</v>
       </c>
       <c r="M70" t="s">
+        <v>184</v>
+      </c>
+      <c r="O70" t="s">
         <v>140</v>
       </c>
-      <c r="N70" t="s">
+      <c r="P70" t="s">
         <v>177</v>
       </c>
-      <c r="O70" t="s">
-        <v>30</v>
-      </c>
-      <c r="P70" t="s">
+      <c r="Q70" t="s">
+        <v>30</v>
+      </c>
+      <c r="R70" t="s">
         <v>143</v>
       </c>
-      <c r="Q70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -4726,22 +4956,25 @@
         <v>144</v>
       </c>
       <c r="M71" t="s">
+        <v>184</v>
+      </c>
+      <c r="O71" t="s">
         <v>145</v>
       </c>
-      <c r="N71" t="s">
+      <c r="P71" t="s">
         <v>178</v>
       </c>
-      <c r="O71" t="s">
-        <v>30</v>
-      </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
+        <v>30</v>
+      </c>
+      <c r="R71" t="s">
         <v>146</v>
       </c>
-      <c r="Q71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -4779,22 +5012,25 @@
         <v>144</v>
       </c>
       <c r="M72" t="s">
+        <v>184</v>
+      </c>
+      <c r="O72" t="s">
         <v>145</v>
       </c>
-      <c r="N72" t="s">
+      <c r="P72" t="s">
         <v>178</v>
       </c>
-      <c r="O72" t="s">
-        <v>30</v>
-      </c>
-      <c r="P72" t="s">
+      <c r="Q72" t="s">
+        <v>30</v>
+      </c>
+      <c r="R72" t="s">
         <v>142</v>
       </c>
-      <c r="Q72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -4832,22 +5068,25 @@
         <v>144</v>
       </c>
       <c r="M73" t="s">
+        <v>184</v>
+      </c>
+      <c r="O73" t="s">
         <v>145</v>
       </c>
-      <c r="N73" t="s">
+      <c r="P73" t="s">
         <v>178</v>
       </c>
-      <c r="O73" t="s">
-        <v>30</v>
-      </c>
-      <c r="P73" t="s">
+      <c r="Q73" t="s">
+        <v>30</v>
+      </c>
+      <c r="R73" t="s">
         <v>143</v>
       </c>
-      <c r="Q73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -4885,22 +5124,25 @@
         <v>147</v>
       </c>
       <c r="M74" t="s">
+        <v>184</v>
+      </c>
+      <c r="O74" t="s">
         <v>148</v>
       </c>
-      <c r="N74" t="s">
+      <c r="P74" t="s">
         <v>179</v>
       </c>
-      <c r="O74" t="s">
-        <v>30</v>
-      </c>
-      <c r="P74" t="s">
+      <c r="Q74" t="s">
+        <v>30</v>
+      </c>
+      <c r="R74" t="s">
         <v>149</v>
       </c>
-      <c r="Q74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -4938,22 +5180,25 @@
         <v>147</v>
       </c>
       <c r="M75" t="s">
+        <v>184</v>
+      </c>
+      <c r="O75" t="s">
         <v>148</v>
       </c>
-      <c r="N75" t="s">
+      <c r="P75" t="s">
         <v>179</v>
       </c>
-      <c r="O75" t="s">
-        <v>30</v>
-      </c>
-      <c r="P75" t="s">
+      <c r="Q75" t="s">
+        <v>30</v>
+      </c>
+      <c r="R75" t="s">
         <v>150</v>
       </c>
-      <c r="Q75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -4991,22 +5236,25 @@
         <v>147</v>
       </c>
       <c r="M76" t="s">
+        <v>184</v>
+      </c>
+      <c r="O76" t="s">
         <v>148</v>
       </c>
-      <c r="N76" t="s">
+      <c r="P76" t="s">
         <v>179</v>
       </c>
-      <c r="O76" t="s">
-        <v>30</v>
-      </c>
-      <c r="P76" t="s">
+      <c r="Q76" t="s">
+        <v>30</v>
+      </c>
+      <c r="R76" t="s">
         <v>151</v>
       </c>
-      <c r="Q76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>17</v>
       </c>
@@ -5044,22 +5292,25 @@
         <v>152</v>
       </c>
       <c r="M77" t="s">
+        <v>184</v>
+      </c>
+      <c r="O77" t="s">
         <v>153</v>
       </c>
-      <c r="N77" t="s">
+      <c r="P77" t="s">
         <v>180</v>
       </c>
-      <c r="O77" t="s">
-        <v>30</v>
-      </c>
-      <c r="P77" t="s">
+      <c r="Q77" t="s">
+        <v>30</v>
+      </c>
+      <c r="R77" t="s">
         <v>154</v>
       </c>
-      <c r="Q77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -5097,22 +5348,25 @@
         <v>152</v>
       </c>
       <c r="M78" t="s">
+        <v>184</v>
+      </c>
+      <c r="O78" t="s">
         <v>153</v>
       </c>
-      <c r="N78" t="s">
+      <c r="P78" t="s">
         <v>180</v>
       </c>
-      <c r="O78" t="s">
-        <v>30</v>
-      </c>
-      <c r="P78" t="s">
+      <c r="Q78" t="s">
+        <v>30</v>
+      </c>
+      <c r="R78" t="s">
         <v>150</v>
       </c>
-      <c r="Q78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -5150,18 +5404,21 @@
         <v>152</v>
       </c>
       <c r="M79" t="s">
+        <v>184</v>
+      </c>
+      <c r="O79" t="s">
         <v>153</v>
       </c>
-      <c r="N79" t="s">
+      <c r="P79" t="s">
         <v>180</v>
       </c>
-      <c r="O79" t="s">
-        <v>30</v>
-      </c>
-      <c r="P79" t="s">
+      <c r="Q79" t="s">
+        <v>30</v>
+      </c>
+      <c r="R79" t="s">
         <v>151</v>
       </c>
-      <c r="Q79">
+      <c r="S79">
         <v>1</v>
       </c>
     </row>
